--- a/Validacao_de_Pessoas/Presenca.xlsx
+++ b/Validacao_de_Pessoas/Presenca.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,6 +417,28 @@
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>ICA</t>
         </is>

--- a/Validacao_de_Pessoas/Presenca.xlsx
+++ b/Validacao_de_Pessoas/Presenca.xlsx
@@ -6,11 +6,12 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9600" windowWidth="21600" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="15_01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="10_01" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="09_01" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="08_01" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="06_01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="16_01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="15_01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="10_01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="09_01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="08_01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="06_01" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -348,6 +349,509 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>16/01/20</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:41</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:41</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14:42</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:42</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14:42</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:42</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Luiz Arouca</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14:56</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:02</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:03</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Vitor Bento</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15:03</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:04</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fabricio Bichara</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15:04</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Gabriel Taranto</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:04</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fabricio Bichara</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:04</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -449,7 +953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -534,7 +1038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -611,47 +1115,6 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>ICA</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="A4:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>08/01/20</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Empresa</t>
         </is>
       </c>
     </row>
@@ -682,6 +1145,47 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="A4:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>06/01/20</t>
         </is>
       </c>
